--- a/Es-DB-hotel.xlsx
+++ b/Es-DB-hotel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\AppData\Local\Temp\Rar$DIa17364.7849\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Documents\Atom\Boolean-Esercizi\database\db-hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0663BC-421F-4DE9-9C43-4879DAC259F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C411B6-2083-4713-B4FD-8E2A5F2F1D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,15 +281,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,6 +294,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -694,7 +694,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -703,59 +703,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -768,202 +768,202 @@
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>101</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
         <v>102</v>
       </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>201</v>
       </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>202</v>
       </c>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
         <v>4</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>203</v>
       </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="2" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="1" t="s">
         <v>2</v>
       </c>
@@ -995,171 +995,171 @@
       <c r="L13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>43112.390046296299</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <v>43236</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="5">
         <v>43239</v>
       </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <v>2</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6">
-        <v>2</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>43206.809502314813</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>43236</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <v>43240</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>4</v>
       </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6">
-        <v>2</v>
-      </c>
-      <c r="K15" s="6">
-        <v>1</v>
-      </c>
-      <c r="L15" s="6">
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
         <v>3</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>43160.010787037034</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <v>43237</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="5">
         <v>43238</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="3">
         <v>5</v>
       </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6">
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="6">
-        <v>2</v>
-      </c>
-      <c r="L16" s="6">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="2" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1175,9 +1175,9 @@
       <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1195,155 +1195,155 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="5">
         <v>28030</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6">
-        <v>1</v>
-      </c>
-      <c r="K21" s="6" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6">
-        <v>2</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="5">
         <v>28518</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6">
-        <v>2</v>
-      </c>
-      <c r="K22" s="6" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3">
         <v>3</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
         <v>27281</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
@@ -1359,92 +1359,92 @@
       <c r="F27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
         <v>200</v>
       </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="6">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6">
-        <v>2</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3">
         <v>123</v>
       </c>
-      <c r="D29" s="6">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3">
         <v>3</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3">
         <v>3</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <v>522</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
